--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDownloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B61D93B-A3B8-46CD-91B7-770427755B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825ED41E-B805-4586-98B3-E2452C565B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
